--- a/easy-poi/src/test/resources/imports/complexEmployList.xlsx
+++ b/easy-poi/src/test/resources/imports/complexEmployList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop_projects\java\mzlion\mzlion-common\easy-poi\src\test\resources\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,13 +190,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,21 +243,27 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +548,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,34 +562,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -588,10 +620,10 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>1002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -600,7 +632,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="10">
@@ -608,10 +640,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -620,14 +650,14 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>1003</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -644,10 +674,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>1003</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -664,7 +692,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
@@ -672,6 +701,7 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
